--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1671805.940235494</v>
+        <v>1669429.313288127</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10415774.98699509</v>
+        <v>10415774.98699508</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>86.71148563472845</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>42.45271927504675</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>74.43987397211012</v>
       </c>
       <c r="S4" t="n">
-        <v>165.8736427209272</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>113.2950864705988</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>59.48550737293719</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.5817891454358</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>33.01590015522218</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>224.7543248662169</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.3332554667404</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>217.1547528334191</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182133</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833723</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>114.6638016462583</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>142.5631989720301</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.06466448613925</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>19.91555826188567</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>87.21471514853036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1214.090290083872</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>845.1277731434607</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>486.8620745367102</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0738219384659</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>94.12832118926245</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059684</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1214.090290083872</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884741</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2349.761373717038</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="S4" t="n">
-        <v>1468.896986012954</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="T4" t="n">
-        <v>1245.91850520769</v>
+        <v>1338.275847378213</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.91850520769</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="V4" t="n">
-        <v>991.2340170018028</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="W4" t="n">
-        <v>701.8168469648423</v>
+        <v>759.7403398450897</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.040280862503</v>
+        <v>862.4791652013137</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.077763922091</v>
+        <v>862.4791652013137</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.812065315341</v>
+        <v>862.4791652013137</v>
       </c>
       <c r="E5" t="n">
-        <v>938.0238127170967</v>
+        <v>476.6909126030694</v>
       </c>
       <c r="F5" t="n">
-        <v>527.0379079274892</v>
+        <v>469.745411853866</v>
       </c>
       <c r="G5" t="n">
-        <v>111.333157651778</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>111.333157651778</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1249.079005265435</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1117.984498974661</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.273730074953</v>
+        <v>1235.944923462393</v>
       </c>
       <c r="C8" t="n">
-        <v>1433.311213134542</v>
+        <v>1235.944923462393</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.045514527791</v>
+        <v>877.679224855643</v>
       </c>
       <c r="E8" t="n">
-        <v>689.257261929547</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>278.2713571399394</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139075</v>
+        <v>1622.544763526515</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925522</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637004</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>172.7955294637004</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
         <v>51.2467865680031</v>
@@ -4960,16 +4960,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374703</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939401</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,25 +5118,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>878.3568999154069</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>728.2402605030711</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>580.327166920678</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>433.4372194227676</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6218,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>691.195150674524</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>489.8360330454444</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>341.9229394630513</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359457</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159268</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349515</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061504</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616111</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380895</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101826</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683292</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7549,19 +7549,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.66059580999772</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>129.7511347056854</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.341680421315915e-12</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>46.4596884482326</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393162</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462252</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
-        <v>50.86033664601051</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>143.621275417214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.356383536792</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823601</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>61.400757869682</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>917595.5874321448</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>917595.5874321447</v>
+        <v>917595.5874321448</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="16">
@@ -26314,28 +26314,28 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
@@ -26344,13 +26344,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099829</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,31 +26430,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731987</v>
-      </c>
       <c r="I4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731976</v>
-      </c>
       <c r="K4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731917</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.4058658436</v>
+        <v>-808330.4058658439</v>
       </c>
       <c r="C6" t="n">
-        <v>306421.3777100758</v>
+        <v>306421.3777100759</v>
       </c>
       <c r="D6" t="n">
-        <v>306421.3777100756</v>
+        <v>306421.3777100757</v>
       </c>
       <c r="E6" t="n">
-        <v>-92079.99407668096</v>
+        <v>-92114.73200211665</v>
       </c>
       <c r="F6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.709622429</v>
       </c>
       <c r="G6" t="n">
-        <v>415405.4475478645</v>
+        <v>415370.7096224289</v>
       </c>
       <c r="H6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.709622429</v>
       </c>
       <c r="I6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.709622429</v>
       </c>
       <c r="J6" t="n">
-        <v>247800.2697378818</v>
+        <v>247765.5318124467</v>
       </c>
       <c r="K6" t="n">
-        <v>415405.4475478648</v>
+        <v>415370.709622429</v>
       </c>
       <c r="L6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="M6" t="n">
-        <v>282798.1538189382</v>
+        <v>282763.4158935022</v>
       </c>
       <c r="N6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.4475478653</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.7096224292</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>267.9715559859545</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>369.0949834979072</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>27.1176984474635</v>
       </c>
       <c r="S4" t="n">
-        <v>28.78881764081027</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>298.2526163023551</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.224405299533309</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>61.16690685177616</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>348.9144699170396</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>186.793377906737</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>28.282217551472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>69.36824550317189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>145.7021085929663</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614906</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480954</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.1413181408522</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>465.1758167018085</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>18.86448192629965</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394724</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
